--- a/config/Gewächshaus.xlsx
+++ b/config/Gewächshaus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomi\Gewaechshaus\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E2F54A-20D8-4EA6-8DD0-0C86B08CA397}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9FA181-F78D-4CB0-B3F4-98633F5962E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51525" yWindow="4425" windowWidth="12075" windowHeight="8310" activeTab="1" xr2:uid="{74198E41-62AA-4039-89A1-A47D0F3B3E60}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{74198E41-62AA-4039-89A1-A47D0F3B3E60}"/>
   </bookViews>
   <sheets>
     <sheet name="I2C Adressen" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Adresse</t>
   </si>
@@ -123,12 +123,6 @@
     <t>Wasserpumpe</t>
   </si>
   <si>
-    <t>Heizung1</t>
-  </si>
-  <si>
-    <t>Heizung2</t>
-  </si>
-  <si>
     <t>Befeuchter</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
     <t>Relais</t>
   </si>
   <si>
-    <t>MOSFET</t>
-  </si>
-  <si>
     <t>Optokoppler</t>
   </si>
   <si>
@@ -169,6 +160,12 @@
   </si>
   <si>
     <t>Ventil Befeuchter</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Heizung</t>
   </si>
 </sst>
 </file>
@@ -526,12 +523,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -562,7 +559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -573,7 +570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -587,7 +584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -595,7 +592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -606,7 +603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -617,7 +614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -635,19 +632,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7039D643-DD94-4099-9B6C-D2A127D48C00}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>0</v>
       </c>
@@ -655,10 +654,10 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -666,10 +665,10 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -677,13 +676,13 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -691,13 +690,13 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -705,85 +704,80 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
       <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/config/Gewächshaus.xlsx
+++ b/config/Gewächshaus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomi\Gewaechshaus\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Desktop\Gewaechshaus\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9FA181-F78D-4CB0-B3F4-98633F5962E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E7D7C8-4595-4545-888A-8252706D5447}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{74198E41-62AA-4039-89A1-A47D0F3B3E60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{74198E41-62AA-4039-89A1-A47D0F3B3E60}"/>
   </bookViews>
   <sheets>
     <sheet name="I2C Adressen" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>Adresse</t>
   </si>
@@ -135,18 +135,6 @@
     <t>Relais</t>
   </si>
   <si>
-    <t>Optokoppler</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
@@ -162,10 +150,40 @@
     <t>Ventil Befeuchter</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>Heizung</t>
+  </si>
+  <si>
+    <t>Optokoppler klein</t>
+  </si>
+  <si>
+    <t>Optokoppler gross</t>
+  </si>
+  <si>
+    <t>24VDC</t>
+  </si>
+  <si>
+    <t>230VAC</t>
+  </si>
+  <si>
+    <t>5VDC</t>
+  </si>
+  <si>
+    <t>PWM Pin</t>
+  </si>
+  <si>
+    <t>Teil</t>
+  </si>
+  <si>
+    <t>geschaltet von</t>
+  </si>
+  <si>
+    <t>Spannung</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R7</t>
   </si>
 </sst>
 </file>
@@ -218,6 +236,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAEC4DE8-96F5-410A-99CB-5CBED2F3812F}" name="Tabelle1" displayName="Tabelle1" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11" xr:uid="{7D9382C8-47A2-48E5-864D-E6333125FF17}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{FFBF782C-B7D2-4FBA-956E-57CD8CC3423D}" name="PWM Pin"/>
+    <tableColumn id="2" xr3:uid="{17E0BC71-8476-4AD5-B588-3E36235653CA}" name="Teil"/>
+    <tableColumn id="3" xr3:uid="{644BDDFD-6DB0-451B-8683-1EAE16835B7F}" name="geschaltet von"/>
+    <tableColumn id="4" xr3:uid="{D03DD6F1-3E4E-443F-B7AF-3E3A3B090FF1}" name="Spannung"/>
+    <tableColumn id="5" xr3:uid="{6D363D9A-C4D0-4BE6-B331-4B0A3C09A61C}" name="Relais"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,12 +555,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -559,7 +591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -570,7 +602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -584,7 +616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -592,7 +624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -603,7 +635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -614,7 +646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -632,155 +664,192 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7039D643-DD94-4099-9B6C-D2A127D48C00}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>